--- a/data/trans_orig/IP13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP13-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AEE63A7-1D66-4178-8952-30A11D0680F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9E168D-6C8F-4332-B179-68EE8B8A3303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFBBC689-9EA2-4D41-B98D-E9CBCE89A477}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FE39052-7F0D-446B-9DCF-5F2B17AC6E33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
   <si>
     <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -107,31 +107,31 @@
     <t>3,17%</t>
   </si>
   <si>
-    <t>12,37%</t>
+    <t>12,4%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>87,63%</t>
+    <t>87,6%</t>
   </si>
   <si>
     <t>96,83%</t>
@@ -140,19 +140,19 @@
     <t>94,8%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,712 +161,790 @@
     <t>4,51%</t>
   </si>
   <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>92,66%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A66F766-B6B1-4165-AB40-42385EB4A279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EE538-605F-4FF3-A714-3B029A0672E3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2179,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD01AEC1-79FB-4D87-BC9A-4DBB45A897ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A15CB39-43DC-47A0-9414-A9D62A118DE5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2470,10 +2548,10 @@
         <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -2482,13 +2560,13 @@
         <v>13004</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2581,13 @@
         <v>79261</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -2518,13 +2596,13 @@
         <v>85670</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="M8" s="7">
         <v>235</v>
@@ -2533,13 +2611,13 @@
         <v>164930</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2685,13 @@
         <v>33681</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2622,13 +2700,13 @@
         <v>24046</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>81</v>
@@ -2637,13 +2715,13 @@
         <v>57727</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2736,13 @@
         <v>457690</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>620</v>
@@ -2673,13 +2751,13 @@
         <v>427582</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>1277</v>
@@ -2688,13 +2766,13 @@
         <v>885273</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2840,13 @@
         <v>5488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2777,13 +2855,13 @@
         <v>8503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2792,13 +2870,13 @@
         <v>13991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2891,13 @@
         <v>166740</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>224</v>
@@ -2828,13 +2906,13 @@
         <v>158309</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>461</v>
@@ -2843,13 +2921,13 @@
         <v>325050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2995,13 @@
         <v>46100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -2932,13 +3010,13 @@
         <v>38621</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -2947,13 +3025,13 @@
         <v>84722</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +3046,13 @@
         <v>704333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>968</v>
@@ -2983,13 +3061,13 @@
         <v>671561</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>1974</v>
@@ -2998,13 +3076,13 @@
         <v>1375893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,7 +3158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC3BBC8-664B-4BF9-88A3-76CB8940E1C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFD44B1-8D9C-4818-AE11-026DF65DCAA3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3097,7 +3175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3419,13 @@
         <v>2239</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3356,13 +3434,13 @@
         <v>2084</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3371,13 +3449,13 @@
         <v>4323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3470,13 @@
         <v>66375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -3407,13 +3485,13 @@
         <v>57294</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>182</v>
@@ -3422,13 +3500,13 @@
         <v>123670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3574,13 @@
         <v>23918</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3511,13 +3589,13 @@
         <v>23797</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -3526,13 +3604,13 @@
         <v>47715</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3625,13 @@
         <v>464817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>677</v>
@@ -3562,13 +3640,13 @@
         <v>448493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>1337</v>
@@ -3577,13 +3655,13 @@
         <v>913310</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3729,13 @@
         <v>6729</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -3666,13 +3744,13 @@
         <v>11184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -3681,13 +3759,13 @@
         <v>17913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3780,13 @@
         <v>180766</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -3717,13 +3795,13 @@
         <v>161519</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>503</v>
@@ -3732,13 +3810,13 @@
         <v>342284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3884,13 @@
         <v>32886</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -3821,13 +3899,13 @@
         <v>37065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -3836,13 +3914,13 @@
         <v>69951</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3935,13 @@
         <v>711958</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>1004</v>
@@ -3872,13 +3950,13 @@
         <v>667306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>2022</v>
@@ -3887,13 +3965,13 @@
         <v>1379264</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +4047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6B0F3F-8F2A-4806-B0B6-89E337CE45E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2E5D64-4428-42FE-8BF7-E93876AAFC75}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3986,7 +4064,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4242,13 +4320,13 @@
         <v>6763</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -4257,13 +4335,13 @@
         <v>4967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4272,13 +4350,13 @@
         <v>11731</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4371,13 @@
         <v>51994</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -4308,13 +4386,13 @@
         <v>46235</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>135</v>
@@ -4323,13 +4401,13 @@
         <v>98228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4475,13 @@
         <v>28890</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4412,13 +4490,13 @@
         <v>22649</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -4427,13 +4505,13 @@
         <v>51539</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4526,13 @@
         <v>463474</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="H11" s="7">
         <v>606</v>
@@ -4463,13 +4541,13 @@
         <v>426487</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>1219</v>
@@ -4478,13 +4556,13 @@
         <v>889961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4630,13 @@
         <v>11369</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4567,13 +4645,13 @@
         <v>10293</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -4582,13 +4660,13 @@
         <v>21662</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4681,13 @@
         <v>162540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -4618,13 +4696,13 @@
         <v>141077</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>439</v>
@@ -4633,13 +4711,13 @@
         <v>303616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4785,13 @@
         <v>47023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -4722,13 +4800,13 @@
         <v>37909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -4737,13 +4815,13 @@
         <v>84932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4836,13 @@
         <v>678007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>884</v>
@@ -4773,13 +4851,13 @@
         <v>614970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>1794</v>
@@ -4788,13 +4866,13 @@
         <v>1292977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9E168D-6C8F-4332-B179-68EE8B8A3303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59F81EDB-8B58-415E-817D-DC75A1613698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FE39052-7F0D-446B-9DCF-5F2B17AC6E33}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{589D46B0-F48D-4AC3-9ED7-E016A765A249}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
   <si>
     <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,883 +68,850 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>95,05%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Menores según si se han tenido que quedar más de la mitad del día en la cama por dolor o síntomas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EE538-605F-4FF3-A714-3B029A0672E3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C4719D-C5F2-4997-BB80-13FECAE09106}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1474,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4726</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1489,81 +1456,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6052</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>10779</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>86141</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I5" s="7">
+        <v>80793</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>166933</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,151 +1543,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>6052</v>
+        <v>20879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>4726</v>
+        <v>21518</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>10779</v>
+        <v>42397</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>121</v>
+        <v>596</v>
       </c>
       <c r="D8" s="7">
-        <v>80792</v>
+        <v>395208</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>129</v>
+        <v>686</v>
       </c>
       <c r="I8" s="7">
-        <v>86141</v>
+        <v>455473</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>250</v>
+        <v>1282</v>
       </c>
       <c r="N8" s="7">
-        <v>166933</v>
+        <v>850681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,153 +1698,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>21518</v>
+        <v>4805</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>20879</v>
+        <v>8559</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>42397</v>
+        <v>13364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>686</v>
+        <v>246</v>
       </c>
       <c r="D11" s="7">
-        <v>455473</v>
+        <v>169261</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>596</v>
+        <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>395208</v>
+        <v>149579</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1282</v>
+        <v>469</v>
       </c>
       <c r="N11" s="7">
-        <v>850681</v>
+        <v>318841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,153 +1853,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7">
-        <v>8559</v>
+        <v>30410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I13" s="7">
-        <v>4805</v>
+        <v>36130</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="N13" s="7">
-        <v>13364</v>
+        <v>66540</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>223</v>
+        <v>971</v>
       </c>
       <c r="D14" s="7">
-        <v>149579</v>
+        <v>650611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>246</v>
+        <v>1030</v>
       </c>
       <c r="I14" s="7">
-        <v>169261</v>
+        <v>685844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>469</v>
+        <v>2001</v>
       </c>
       <c r="N14" s="7">
-        <v>318841</v>
+        <v>1336455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,216 +2008,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>55</v>
-      </c>
-      <c r="D16" s="7">
-        <v>36130</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>47</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30410</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>102</v>
-      </c>
-      <c r="N16" s="7">
-        <v>66540</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1031</v>
-      </c>
-      <c r="D17" s="7">
-        <v>686570</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>971</v>
-      </c>
-      <c r="I17" s="7">
-        <v>650611</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2002</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1337181</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2257,8 +2074,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A15CB39-43DC-47A0-9414-A9D62A118DE5}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D52AC7-10A7-4EE8-95E9-3AC9003BDAB3}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2274,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2375,96 +2192,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6072</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6931</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>13004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>85670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="I5" s="7">
+        <v>79261</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>164930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,151 +2294,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91742</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86192</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>177934</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>6931</v>
+        <v>24046</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>6072</v>
+        <v>33681</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="N7" s="7">
-        <v>13004</v>
+        <v>57727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>111</v>
+        <v>620</v>
       </c>
       <c r="D8" s="7">
-        <v>79261</v>
+        <v>427582</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
+        <v>657</v>
+      </c>
+      <c r="I8" s="7">
+        <v>457690</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1277</v>
+      </c>
+      <c r="N8" s="7">
+        <v>885273</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="I8" s="7">
-        <v>85670</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="7">
-        <v>235</v>
-      </c>
-      <c r="N8" s="7">
-        <v>164930</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,153 +2449,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>121</v>
+        <v>654</v>
       </c>
       <c r="D9" s="7">
-        <v>86192</v>
+        <v>451628</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>704</v>
       </c>
       <c r="I9" s="7">
-        <v>91742</v>
+        <v>491371</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>254</v>
+        <v>1358</v>
       </c>
       <c r="N9" s="7">
-        <v>177934</v>
+        <v>943000</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>33681</v>
+        <v>8503</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>24046</v>
+        <v>5488</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>57727</v>
+        <v>13991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>657</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>457690</v>
+        <v>158309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
-        <v>620</v>
+        <v>237</v>
       </c>
       <c r="I11" s="7">
-        <v>427582</v>
+        <v>166740</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>1277</v>
+        <v>461</v>
       </c>
       <c r="N11" s="7">
-        <v>885273</v>
+        <v>325050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,153 +2604,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>704</v>
+        <v>236</v>
       </c>
       <c r="D12" s="7">
-        <v>491371</v>
+        <v>166812</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>654</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>451628</v>
+        <v>172228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1358</v>
+        <v>480</v>
       </c>
       <c r="N12" s="7">
-        <v>943000</v>
+        <v>339041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>5488</v>
+        <v>38621</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>8503</v>
+        <v>46100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="N13" s="7">
-        <v>13991</v>
+        <v>84722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>237</v>
+        <v>968</v>
       </c>
       <c r="D14" s="7">
-        <v>166740</v>
+        <v>671561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>224</v>
+        <v>1005</v>
       </c>
       <c r="I14" s="7">
-        <v>158309</v>
+        <v>703692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>461</v>
+        <v>1973</v>
       </c>
       <c r="N14" s="7">
-        <v>325050</v>
+        <v>1375252</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,216 +2759,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>1023</v>
       </c>
       <c r="D15" s="7">
-        <v>172228</v>
+        <v>710182</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>236</v>
+        <v>1069</v>
       </c>
       <c r="I15" s="7">
-        <v>166812</v>
+        <v>749792</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>480</v>
+        <v>2092</v>
       </c>
       <c r="N15" s="7">
-        <v>339041</v>
+        <v>1459974</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>64</v>
-      </c>
-      <c r="D16" s="7">
-        <v>46100</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>55</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38621</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M16" s="7">
-        <v>119</v>
-      </c>
-      <c r="N16" s="7">
-        <v>84722</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1006</v>
-      </c>
-      <c r="D17" s="7">
-        <v>704333</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="7">
-        <v>968</v>
-      </c>
-      <c r="I17" s="7">
-        <v>671561</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1974</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1375893</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1070</v>
-      </c>
-      <c r="D18" s="7">
-        <v>750433</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I18" s="7">
-        <v>710182</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1460615</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3158,8 +2825,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFD44B1-8D9C-4818-AE11-026DF65DCAA3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2158F2BF-C670-4129-B68F-B3869CB767B7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3175,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3276,88 +2943,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2084</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2239</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4323</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="D5" s="7">
+        <v>57294</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="I5" s="7">
+        <v>66375</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="N5" s="7">
+        <v>123670</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,147 +3045,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>2239</v>
+        <v>23797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>2084</v>
+        <v>23918</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>4323</v>
+        <v>47715</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>96</v>
+        <v>677</v>
       </c>
       <c r="D8" s="7">
-        <v>66375</v>
+        <v>448493</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>660</v>
       </c>
       <c r="I8" s="7">
-        <v>57294</v>
+        <v>464817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>182</v>
+        <v>1337</v>
       </c>
       <c r="N8" s="7">
-        <v>123670</v>
+        <v>913310</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,153 +3200,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>23918</v>
+        <v>11184</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>23797</v>
+        <v>6729</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>47715</v>
+        <v>17913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>660</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>464817</v>
+        <v>161519</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
-        <v>677</v>
+        <v>262</v>
       </c>
       <c r="I11" s="7">
-        <v>448493</v>
+        <v>180766</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
-        <v>1337</v>
+        <v>503</v>
       </c>
       <c r="N11" s="7">
-        <v>913310</v>
+        <v>342284</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,153 +3355,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>6729</v>
+        <v>37065</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>11184</v>
+        <v>32886</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>17913</v>
+        <v>69951</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>262</v>
+        <v>1004</v>
       </c>
       <c r="D14" s="7">
-        <v>180766</v>
+        <v>667306</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>1018</v>
       </c>
       <c r="I14" s="7">
-        <v>161519</v>
+        <v>711958</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>503</v>
+        <v>2022</v>
       </c>
       <c r="N14" s="7">
-        <v>342284</v>
+        <v>1379264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,216 +3510,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>47</v>
-      </c>
-      <c r="D16" s="7">
-        <v>32886</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H16" s="7">
-        <v>57</v>
-      </c>
-      <c r="I16" s="7">
-        <v>37065</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M16" s="7">
-        <v>104</v>
-      </c>
-      <c r="N16" s="7">
-        <v>69951</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1018</v>
-      </c>
-      <c r="D17" s="7">
-        <v>711958</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1004</v>
-      </c>
-      <c r="I17" s="7">
-        <v>667306</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2022</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1379264</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4047,8 +3576,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2E5D64-4428-42FE-8BF7-E93876AAFC75}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F242B784-C7A6-422A-A9C0-15D553C4532E}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4064,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4165,96 +3694,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4901</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7098</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>11999</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="D5" s="7">
+        <v>49777</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>54906</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>104683</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,151 +3796,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>6763</v>
+        <v>22546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>4967</v>
+        <v>29616</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="N7" s="7">
-        <v>11731</v>
+        <v>52162</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>74</v>
+        <v>606</v>
       </c>
       <c r="D8" s="7">
-        <v>51994</v>
+        <v>437148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
-        <v>61</v>
+        <v>613</v>
       </c>
       <c r="I8" s="7">
-        <v>46235</v>
+        <v>487003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
-        <v>135</v>
+        <v>1219</v>
       </c>
       <c r="N8" s="7">
-        <v>98228</v>
+        <v>924151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,153 +3951,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1298</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>976313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>28890</v>
+        <v>9991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>22649</v>
+        <v>11703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>51539</v>
+        <v>21693</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>613</v>
+        <v>216</v>
       </c>
       <c r="D11" s="7">
-        <v>463474</v>
+        <v>139560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
-        <v>606</v>
+        <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>426487</v>
+        <v>170922</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
-        <v>1219</v>
+        <v>439</v>
       </c>
       <c r="N11" s="7">
-        <v>889961</v>
+        <v>310483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,153 +4106,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>642</v>
+        <v>237</v>
       </c>
       <c r="I12" s="7">
-        <v>449136</v>
+        <v>182625</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1298</v>
+        <v>467</v>
       </c>
       <c r="N12" s="7">
-        <v>941500</v>
+        <v>332176</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>11369</v>
+        <v>37437</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>10293</v>
+        <v>48417</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="N13" s="7">
-        <v>21662</v>
+        <v>85854</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>223</v>
+        <v>883</v>
       </c>
       <c r="D14" s="7">
-        <v>162540</v>
+        <v>626486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
-        <v>216</v>
+        <v>910</v>
       </c>
       <c r="I14" s="7">
-        <v>141077</v>
+        <v>712831</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
-        <v>439</v>
+        <v>1793</v>
       </c>
       <c r="N14" s="7">
-        <v>303616</v>
+        <v>1339317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,216 +4261,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>237</v>
+        <v>941</v>
       </c>
       <c r="D15" s="7">
-        <v>173909</v>
+        <v>663923</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761248</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>467</v>
+        <v>1917</v>
       </c>
       <c r="N15" s="7">
-        <v>325278</v>
+        <v>1425171</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>66</v>
-      </c>
-      <c r="D16" s="7">
-        <v>47023</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="7">
-        <v>58</v>
-      </c>
-      <c r="I16" s="7">
-        <v>37909</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M16" s="7">
-        <v>124</v>
-      </c>
-      <c r="N16" s="7">
-        <v>84932</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>910</v>
-      </c>
-      <c r="D17" s="7">
-        <v>678007</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H17" s="7">
-        <v>884</v>
-      </c>
-      <c r="I17" s="7">
-        <v>614970</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1794</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1292977</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>976</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725030</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1377909</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
